--- a/Talleres/Taller 2/Diccionario_Calidad del agua.xlsx
+++ b/Talleres/Taller 2/Diccionario_Calidad del agua.xlsx
@@ -69,13 +69,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -114,12 +120,12 @@
   <cellXfs count="5">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -436,85 +442,85 @@
     <col min="1" max="1" style="4" width="100.7192857142857" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75" customFormat="1" s="1">
+      <c r="A1" s="2"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21" customFormat="1" s="2">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21" customFormat="1" s="1">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
